--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9468C-D3F2-4694-A985-0F1529A2EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95062419-5AA3-457B-B3AE-0660E7A407BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19935" yWindow="2460" windowWidth="18060" windowHeight="13365" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="34">
   <si>
     <t>Result</t>
   </si>
@@ -53,24 +53,12 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:14:07 EDT 2023</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Existing Liability</t>
-  </si>
-  <si>
-    <t>Bay Restoration Fund Tax</t>
-  </si>
-  <si>
     <t>Mon Jul 17 21:14:15 EDT 2023</t>
   </si>
   <si>
-    <t>CORP Tax</t>
-  </si>
-  <si>
     <t>Mon Jul 17 21:14:42 EDT 2023</t>
   </si>
   <si>
@@ -80,15 +68,9 @@
     <t>Mon Jul 17 21:15:09 EDT 2023</t>
   </si>
   <si>
-    <t>PTE (510 LLC) Tax</t>
-  </si>
-  <si>
     <t>Mon Jul 17 21:15:18 EDT 2023</t>
   </si>
   <si>
-    <t>PTE (510 SCorp) Tax</t>
-  </si>
-  <si>
     <t>Mon Jul 17 21:15:27 EDT 2023</t>
   </si>
   <si>
@@ -98,9 +80,6 @@
     <t>Mon Jul 17 21:15:36 EDT 2023</t>
   </si>
   <si>
-    <t>Tire Fee Tax</t>
-  </si>
-  <si>
     <t>Mon Jul 17 21:15:45 EDT 2023</t>
   </si>
   <si>
@@ -113,25 +92,52 @@
     <t>Alcohol Tax</t>
   </si>
   <si>
-    <t>PTEE (511 LLC) Tax</t>
-  </si>
-  <si>
-    <t>PTEE (511 SCorp) Tax</t>
-  </si>
-  <si>
     <t>PaymentType</t>
   </si>
   <si>
-    <t>Estimated Tax</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>Extension Payments</t>
-  </si>
-  <si>
-    <t>New Liability</t>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Quarterly Estimated Tax</t>
+  </si>
+  <si>
+    <t>Extension Payment</t>
+  </si>
+  <si>
+    <t>New Tax Return Amount Due</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fee</t>
+  </si>
+  <si>
+    <t>Corporate Income Tax</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing S Corp</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:09:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:09:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:09:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Sep 03 16:09:41 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -504,17 +510,17 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -539,16 +545,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,13 +562,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,13 +579,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,13 +596,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,13 +613,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,13 +630,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,13 +647,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,13 +664,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,178 +681,247 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95062419-5AA3-457B-B3AE-0660E7A407BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3A25FDEB-4DEB-4748-9391-7F33B4611D46}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="108">
   <si>
     <t>Result</t>
   </si>
@@ -56,94 +56,317 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:14:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:14:42 EDT 2023</t>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Quarterly Estimated Tax</t>
+  </si>
+  <si>
+    <t>New Tax Return Amount Due</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fee</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing S Corp</t>
+  </si>
+  <si>
+    <t>Corporate Income Tax</t>
   </si>
   <si>
     <t>Fiduciary Tax</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:15:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:27 EDT 2023</t>
-  </si>
-  <si>
     <t>Sales &amp; Use Tax</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:15:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:15:45 EDT 2023</t>
-  </si>
-  <si>
     <t>Withholding Tax</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:15:55 EDT 2023</t>
-  </si>
-  <si>
     <t>Alcohol Tax</t>
   </si>
   <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
-    <t>Quarterly Estimated Tax</t>
-  </si>
-  <si>
-    <t>Extension Payment</t>
-  </si>
-  <si>
-    <t>New Tax Return Amount Due</t>
-  </si>
-  <si>
-    <t>Bay Restoration Fee</t>
-  </si>
-  <si>
-    <t>Corporate Income Tax</t>
-  </si>
-  <si>
-    <t>PTE Non-Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Non-Electing S Corp</t>
-  </si>
-  <si>
-    <t>Tire Recycling Fee</t>
-  </si>
-  <si>
-    <t>PTE Tax Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Tax Electing S Corp</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:09:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:09:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:09:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Sep 03 16:09:41 EDT 2023</t>
+    <t>Fri Sep 08 12:25:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:25:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:25:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:26:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:26:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:26:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:26:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:26:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:26:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:27:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:27:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:27:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:27:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:27:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:28:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:28:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:28:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:28:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:28:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:29:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:29:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:29:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:29:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:29:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:29:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:30:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:30:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:30:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Extension Payments</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:16:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:16:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:16:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:17:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:17:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:17:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:17:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:17:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:18:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:18:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:18:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:18:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:18:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:19:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:19:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:19:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:19:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:19:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:20:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:20:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:20:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:20:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:20:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:21:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:21:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:21:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:21:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:21:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:54:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:54:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:54:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:55:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:55:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:55:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:55:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:55:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:56:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:56:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:56:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:56:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:56:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:57:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:57:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:57:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:57:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:57:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:57:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:58:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:58:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:58:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:58:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:58:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:59:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:59:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:59:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 17:59:45 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,19 +409,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -215,10 +438,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -253,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -305,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -416,21 +639,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -447,7 +670,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -499,28 +722,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+      <selection activeCell="D19" sqref="D19:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -545,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,16 +785,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,16 +802,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,16 +819,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,16 +836,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,16 +853,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,16 +870,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,16 +887,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,42 +904,50 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -724,71 +955,101 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,71 +1057,101 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,65 +1159,89 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="192">
   <si>
     <t>Result</t>
   </si>
@@ -360,6 +360,258 @@
   </si>
   <si>
     <t>Fri Sep 08 17:59:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:38:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:39:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:39:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:39:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:39:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:39:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:39:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:40:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:40:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:40:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:40:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:40:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:41:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:41:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:41:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:41:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:41:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:41:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:42:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:42:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:42:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:42:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:42:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:43:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:43:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:43:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:43:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:43:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:50:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:50:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:50:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:50:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:50:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:51:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:51:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:51:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:51:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:51:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:52:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:52:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:52:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:52:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:52:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:52:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:53:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:53:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:53:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:53:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:53:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:54:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:54:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:54:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:54:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:54:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:54:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:55:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:48:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:48:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:49:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:49:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:49:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:49:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:49:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:50:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:50:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:50:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:50:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:50:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:50:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:51:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:51:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:51:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:51:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:51:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:51:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:52:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:52:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:52:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:52:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:52:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:53:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:53:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:53:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:53:34 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -768,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -785,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -802,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -819,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -836,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -853,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -870,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -887,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -904,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -921,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -938,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -955,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -972,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -989,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1006,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1023,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1040,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1057,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1074,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1091,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1108,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1125,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1142,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1159,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1176,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1193,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1210,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1227,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="220">
   <si>
     <t>Result</t>
   </si>
@@ -612,6 +612,90 @@
   </si>
   <si>
     <t>Mon Sep 11 13:53:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:13:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:13:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:13:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:14:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:14:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:14:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:14:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:14:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:14:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:15:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:15:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:15:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:15:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:15:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:15:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:16:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:16:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:16:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:16:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:16:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:17:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:17:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:17:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:17:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:17:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:17:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:18:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:18:10 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1037,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1054,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1068,10 +1152,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1085,10 +1169,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1105,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1122,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1139,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1156,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1170,10 +1254,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1187,10 +1271,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1207,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1224,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1238,10 +1322,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1255,10 +1339,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1272,10 +1356,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1289,10 +1373,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1309,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1326,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1340,10 +1424,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1357,10 +1441,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1374,10 +1458,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1391,10 +1475,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1411,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1425,10 +1509,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1442,10 +1526,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1459,10 +1543,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1476,10 +1560,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14592A8B-C714-4270-85E4-E226D49E373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{14592A8B-C714-4270-85E4-E226D49E373E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
   <si>
     <t>Result</t>
   </si>
@@ -126,12 +126,88 @@
   </si>
   <si>
     <t>Fri Sep 29 12:57:04 EDT 2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:17:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:18:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:18:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:18:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:18:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:18:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:19:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:19:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:19:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:19:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:19:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:19:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:26:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:26:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:27:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:27:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:27:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:27:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:27:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:28:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:28:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:28:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:28:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:28:43 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,19 +250,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -203,10 +279,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -241,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -293,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -404,21 +480,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -435,7 +511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -487,15 +563,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD17"/>
@@ -503,12 +579,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -550,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -567,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -584,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -601,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -618,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -635,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -652,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -669,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -686,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -703,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -720,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -733,8 +809,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
   <si>
     <t>Result</t>
   </si>
@@ -201,6 +201,42 @@
   </si>
   <si>
     <t>Mon Oct 02 16:28:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:13:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:13:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:13:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:14:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:14:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:14:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:14:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:14:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:15:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:15:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:15:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:15:34 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -609,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -626,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -643,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -660,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -677,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -694,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -711,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -728,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -745,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -762,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -779,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -796,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="79">
   <si>
     <t>Result</t>
   </si>
@@ -237,6 +237,42 @@
   </si>
   <si>
     <t>Fri Oct 06 11:15:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:30:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:30:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:30:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:30:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:31:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:31:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:31:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:31:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:31:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:31:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:32:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:32:17 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -645,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -662,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -679,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -696,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -713,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -730,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -747,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -764,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -781,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -798,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -815,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -832,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="115">
   <si>
     <t>Result</t>
   </si>
@@ -273,6 +273,114 @@
   </si>
   <si>
     <t>Mon Oct 09 22:32:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:38:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:38:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:38:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:38:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:39:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:39:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:39:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:39:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:39:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:39:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:40:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 14:40:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:18:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:18:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:18:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:18:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:19:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:19:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:19:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:19:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:19:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:19:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:20:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:20:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:56 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -681,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -698,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -715,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -732,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -749,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -766,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -783,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -800,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -817,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -834,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -851,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -868,7 +976,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{14592A8B-C714-4270-85E4-E226D49E373E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3DC92CE2-C3B6-4486-9087-B8377E582A49}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-120"/>
+    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="2460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
   <si>
     <t>Result</t>
   </si>
@@ -92,295 +92,76 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Fri Sep 29 11:22:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:22:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:23:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:23:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:23:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:23:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:24:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:24:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:25:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:25:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:26:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 12:57:04 EDT 2023</t>
+    <t>Wed Nov 01 15:37:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:37:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:38:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Fri Sep 29 18:17:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:18:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:18:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:18:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:18:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:18:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:19:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:19:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:19:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:19:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:19:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:19:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:26:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:26:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:27:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:27:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:27:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:27:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:27:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:28:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:28:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:28:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:28:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:28:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:13:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:13:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:13:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:14:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:14:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:14:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:14:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:14:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:15:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:15:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:15:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:15:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:30:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:30:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:30:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:30:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:31:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:31:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:31:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:31:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:31:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:31:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:32:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:32:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:38:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:38:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:38:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:38:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:39:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:39:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:39:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:39:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:39:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:39:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:40:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 14:40:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:18:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:18:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:18:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:18:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:19:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:19:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:19:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:19:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:19:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:19:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:20:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:20:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:56 EDT 2023</t>
+    <t>Thu Dec 07 21:29:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:29:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:29:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:30:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:30:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:30:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:30:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:30:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:30:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:31:05 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -754,7 +535,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -806,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -823,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -840,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -857,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -874,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -891,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -908,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -925,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -942,10 +723,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -959,10 +740,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -976,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>Result</t>
   </si>
@@ -162,6 +162,36 @@
   </si>
   <si>
     <t>Thu Dec 07 21:31:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:41:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:41:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:41:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:41:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:42:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:42:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:42:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:42:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:42:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:42:57 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -570,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -587,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -604,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -621,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -638,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -655,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -672,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -689,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -706,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -757,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3DC92CE2-C3B6-4486-9087-B8377E582A49}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE63A2-C0C6-41E2-B56F-022F09FB98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="2460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
   <si>
     <t>Result</t>
   </si>
@@ -92,78 +92,15 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:37:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:37:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:25 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Nov 01 15:38:35 EDT 2023</t>
   </si>
   <si>
     <t>Wed Nov 01 15:38:45 EDT 2023</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:38:56 EDT 2023</t>
-  </si>
-  <si>
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:29:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:29:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:29:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:30:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:30:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:30:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:30:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:30:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:30:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:31:05 EST 2023</t>
-  </si>
-  <si>
     <t>Wed Dec 20 12:41:26 EST 2023</t>
   </si>
   <si>
@@ -192,13 +129,39 @@
   </si>
   <si>
     <t>Wed Dec 20 12:42:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t>Sales and Use Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,19 +204,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -270,10 +233,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -308,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -360,7 +323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -471,21 +434,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -502,7 +465,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -554,28 +517,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="C14" sqref="C14:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -617,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -634,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -651,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -668,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -685,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -702,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -719,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -736,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -753,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -770,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -787,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -799,9 +762,240 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE63A2-C0C6-41E2-B56F-022F09FB98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1763202B-F37A-4B67-B06F-5DA99B519F68}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="-25650" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="2655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
   <si>
     <t>Result</t>
   </si>
@@ -101,51 +101,15 @@
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t>Wed Dec 20 12:41:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:41:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:41:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:41:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:42:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:42:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:42:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:42:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:42:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:42:57 EST 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
-    <t>Estate Tax</t>
-  </si>
-  <si>
     <t>Motor Fuel Tax</t>
   </si>
   <si>
     <t>Slots License Fee</t>
   </si>
   <si>
-    <t>Tobacco Tax</t>
-  </si>
-  <si>
     <t>Transportation Network Services</t>
   </si>
   <si>
@@ -156,12 +120,178 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:37:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:37:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:37:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:38:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:38:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:38:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:38:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:38:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:38:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:39:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:39:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:39:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:39:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:40:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:40:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:40:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:40:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:40:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:40:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:40:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:41:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:41:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:41:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:41:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:42:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:42:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:42:26 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:05:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:05:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:05:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:06:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:06:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:06:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:06:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:06:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:06:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:07:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:07:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:07:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:07:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:07:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:07:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:08:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:08:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:08:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:08:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:08:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:08:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:09:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:09:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:09:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:09:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:09:47 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,19 +334,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,10 +363,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -271,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -323,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,21 +564,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -465,7 +595,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -517,28 +647,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -580,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -597,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -614,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -631,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -648,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -665,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -682,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -699,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -750,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -763,6 +893,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,10 +906,16 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,10 +923,16 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,10 +940,16 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,10 +957,16 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,10 +974,16 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,32 +991,50 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,10 +1042,16 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,10 +1059,16 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
@@ -880,10 +1076,16 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,10 +1093,16 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,10 +1110,16 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -913,10 +1127,16 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,10 +1144,16 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,10 +1161,16 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,56 +1178,12 @@
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="110">
   <si>
     <t>Result</t>
   </si>
@@ -285,6 +285,87 @@
   </si>
   <si>
     <t>Sun Jan 14 16:09:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:18:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:18:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:18:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:18:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:18:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:19:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:19:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:19:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:19:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:19:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:19:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:20:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:20:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:20:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:20:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:20:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:20:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:21:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:21:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:21:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:21:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:21:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:22:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:22:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:22:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:22:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:22:41 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -693,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -710,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -727,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -744,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -761,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -778,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -795,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -812,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -829,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -880,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -897,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -914,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -931,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -948,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -965,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -982,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -999,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1016,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1033,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1050,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1067,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1084,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1101,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1118,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1135,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1152,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1169,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="137">
   <si>
     <t>Result</t>
   </si>
@@ -366,6 +366,87 @@
   </si>
   <si>
     <t>Thu Jan 25 17:22:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:55:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:56:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:56:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:56:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:56:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:56:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:57:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:57:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:57:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:57:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:57:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:57:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:58:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:58:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:58:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:58:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:58:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:58:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:59:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:59:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:59:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:59:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 22:59:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:00:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:00:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:00:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:00:39 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -774,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -791,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -808,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -825,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -842,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -859,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -876,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -893,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -910,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -961,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -978,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -995,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1012,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1029,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1046,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1063,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1080,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1097,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1114,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1131,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1148,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1165,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1182,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1199,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1216,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1233,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1250,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="164">
   <si>
     <t>Result</t>
   </si>
@@ -447,6 +447,87 @@
   </si>
   <si>
     <t>Sat Feb 03 23:00:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:26:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:26:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:27:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:27:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:27:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:27:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:27:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:27:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:28:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:28:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:28:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:28:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:28:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:28:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:29:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:29:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:29:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:29:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:29:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:29:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:30:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:30:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:30:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:30:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:30:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:30:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:30:58 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -855,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -872,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -889,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -906,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -923,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -940,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -957,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -974,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -991,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1042,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1059,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1076,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1093,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1110,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1127,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1144,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1161,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1178,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1195,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1212,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1229,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1246,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1263,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1280,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1297,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1314,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1331,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="191">
   <si>
     <t>Result</t>
   </si>
@@ -528,6 +528,87 @@
   </si>
   <si>
     <t>Sat Feb 17 22:30:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:38:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:39:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:39:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:40:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:41:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:41:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:42:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:42:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:43:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:43:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:44:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:45:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:45:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:46:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:46:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:47:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:47:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:48:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:48:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:49:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:50:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:50:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:50:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:51:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:52:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:52:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Mar 07 23:53:16 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -936,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -953,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -970,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -987,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1004,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1021,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1038,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1055,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1072,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1123,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1140,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1157,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1174,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1191,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1208,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1225,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1242,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1259,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1276,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1293,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1310,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1327,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1344,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1361,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1378,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1395,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1412,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1763202B-F37A-4B67-B06F-5DA99B519F68}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F7049-6921-4AA2-8F57-624AC07342FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="-25650" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="2655"/>
+    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Result</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Wed Nov 01 15:38:45 EDT 2023</t>
   </si>
   <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -120,414 +117,6 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:37:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:37:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:37:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:38:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:38:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:38:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:38:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:38:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:38:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:39:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:39:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:39:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:39:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:40:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:40:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:40:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:40:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:40:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:40:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:40:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:41:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:41:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:41:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:41:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:42:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:42:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:42:26 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:05:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:05:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:05:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:06:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:06:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:06:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:06:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:06:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:06:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:07:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:07:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:07:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:07:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:07:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:07:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:08:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:08:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:08:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:08:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:08:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:08:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:09:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:09:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:09:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:09:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:09:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:18:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:18:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:18:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:18:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:18:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:19:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:19:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:19:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:19:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:19:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:19:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:20:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:20:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:20:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:20:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:20:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:20:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:21:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:21:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:21:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:21:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:21:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:22:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:22:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:22:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:22:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:22:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:55:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:56:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:56:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:56:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:56:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:56:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:57:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:57:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:57:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:57:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:57:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:57:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:58:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:58:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:58:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:58:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:58:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:58:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:59:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:59:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:59:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:59:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 22:59:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:00:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:00:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:00:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:00:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:26:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:26:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:27:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:27:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:27:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:27:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:27:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:27:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:28:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:28:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:28:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:28:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:28:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:28:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:29:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:29:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:29:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:29:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:29:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:29:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:30:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:30:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:30:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:30:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:30:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:30:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:30:58 EST 2024</t>
   </si>
   <si>
     <t>Thu Mar 07 23:38:43 EST 2024</t>
@@ -615,7 +204,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,19 +246,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -687,10 +275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -725,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -777,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -888,21 +476,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -919,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -971,28 +559,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1034,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1051,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1068,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1085,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1102,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1119,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1136,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1153,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1173,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -1190,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -1204,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1221,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1230,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1247,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1264,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1281,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1298,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1315,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1323,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1332,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1357,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1374,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1391,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1400,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1417,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1434,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1442,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1459,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1468,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1485,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1506,8 +1094,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F7049-6921-4AA2-8F57-624AC07342FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9631931C-A87A-40B0-84F5-3FFB77F18EB9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>Result</t>
   </si>
@@ -198,12 +198,22 @@
   </si>
   <si>
     <t>Thu Mar 07 23:53:16 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:02:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:02:27 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,19 +256,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -275,10 +285,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -313,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -365,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -476,21 +486,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -507,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -559,28 +569,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C12"/>
+      <selection activeCell="C13" sqref="C13:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,9 +617,6 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -624,9 +631,6 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
@@ -641,9 +645,6 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -658,9 +659,6 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -675,9 +673,6 @@
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
@@ -692,9 +687,6 @@
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,9 +701,6 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
@@ -726,9 +715,6 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
@@ -743,9 +729,6 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
@@ -758,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -775,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -794,9 +777,6 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
@@ -811,9 +791,6 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,9 +805,6 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
@@ -845,9 +819,6 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,9 +833,6 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,9 +847,6 @@
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,9 +861,6 @@
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,9 +875,6 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,9 +889,6 @@
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,9 +903,6 @@
       <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,9 +917,6 @@
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,9 +931,6 @@
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,9 +945,6 @@
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1015,9 +959,6 @@
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,9 +973,6 @@
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,9 +987,6 @@
       <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,9 +1001,6 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,9 +1015,6 @@
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1094,8 +1023,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9631931C-A87A-40B0-84F5-3FFB77F18EB9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E2838-2B25-4621-A31B-80CCDA3DDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="615"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Result</t>
   </si>
@@ -59,9 +59,6 @@
     <t>PaymentType</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
@@ -92,12 +89,6 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:38:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:38:45 EDT 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -200,20 +191,19 @@
     <t>Thu Mar 07 23:53:16 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Wed Mar 20 23:02:17 EDT 2024</t>
   </si>
   <si>
     <t>Wed Mar 20 23:02:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,19 +246,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -285,10 +275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -323,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -375,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -486,21 +476,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -517,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -569,28 +559,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C30"/>
+      <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,13 +605,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,13 +622,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,13 +639,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,13 +656,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,13 +673,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,13 +690,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,13 +707,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,13 +724,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,13 +741,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,16 +758,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,16 +775,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,13 +792,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,13 +809,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,13 +826,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,13 +843,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,13 +860,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,13 +877,16 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,13 +894,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,13 +911,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,13 +928,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,13 +945,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,13 +962,16 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,13 +979,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,13 +996,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,13 +1013,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,13 +1030,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,13 +1047,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,13 +1064,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,18 +1081,21 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E2838-2B25-4621-A31B-80CCDA3DDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{076E2838-2B25-4621-A31B-80CCDA3DDD67}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="84">
   <si>
     <t>Result</t>
   </si>
@@ -198,12 +198,103 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:33:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:33:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:33:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:33:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:33:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:33:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:34:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:34:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:34:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:34:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:34:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:34:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:35:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:35:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:35:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:35:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:35:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:35:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:35:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:36:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:36:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:36:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:36:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:36:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:36:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:37:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:37:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:37:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:37:35 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,19 +337,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -275,10 +366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -313,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -365,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -476,21 +567,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -507,7 +598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -559,15 +650,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C30"/>
@@ -575,12 +666,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -622,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -639,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -656,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -673,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -690,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -707,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -724,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -741,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -758,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -775,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -792,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -809,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -826,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -843,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -860,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -877,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -894,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -911,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -928,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -945,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -962,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -979,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -996,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1013,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1030,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1047,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1064,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1081,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1094,8 +1185,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="113">
   <si>
     <t>Result</t>
   </si>
@@ -288,6 +288,93 @@
   </si>
   <si>
     <t>Mon Apr 08 17:37:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:29:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:29:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:30:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:30:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:30:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:30:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:30:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:30:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:31:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:31:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:31:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:31:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:31:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:32:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:32:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:32:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:32:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:32:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:32:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:33:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:33:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:33:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:33:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:33:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:33:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:34:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:34:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:34:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:34:39 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -696,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -713,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -730,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -747,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -764,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -781,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -798,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -815,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -832,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -849,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -866,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -883,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -900,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -917,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -934,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -951,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -968,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -985,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1002,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1019,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1036,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1053,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1070,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1087,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1104,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1121,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1138,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1155,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1172,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="200">
   <si>
     <t>Result</t>
   </si>
@@ -375,6 +375,267 @@
   </si>
   <si>
     <t>Sat Oct 12 23:34:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:20:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:21:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:21:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:21:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:21:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:21:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:22:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:22:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:22:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:22:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:22:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:23:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:23:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:23:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:23:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:23:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:23:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:24:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:24:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:24:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:24:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:24:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:25:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:25:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:25:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:25:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:25:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:25:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:26:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:19:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:19:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:20:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:20:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:20:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:20:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:20:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:20:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:21:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:21:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:21:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:21:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:21:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:21:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:22:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:22:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:22:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:22:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:22:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:22:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:23:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:23:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:23:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:23:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:23:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:24:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:24:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:24:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:24:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:30:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:30:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:30:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:31:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:31:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:31:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:31:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:31:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:31:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:32:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:32:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:32:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:32:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:32:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:32:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:33:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:33:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:33:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:33:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:33:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:33:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:34:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:34:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:34:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:34:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:34:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:34:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:35:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:35:18 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -783,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -800,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -817,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -834,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -851,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -868,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -885,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -902,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -919,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -936,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -953,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -970,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -987,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1004,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1021,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1038,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1055,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1072,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1089,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1106,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1123,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1140,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1157,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1174,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1191,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1208,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1225,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1242,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1259,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="229">
   <si>
     <t>Result</t>
   </si>
@@ -636,6 +636,93 @@
   </si>
   <si>
     <t>Fri Oct 25 11:35:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:05:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:05:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:05:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:05:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:06:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:06:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:06:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:06:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:06:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:06:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:07:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:07:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:07:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:07:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:08:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:08:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:08:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:08:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:08:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:09:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:09:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:09:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:09:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:09:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:10:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:10:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:10:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:10:34 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1061,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1078,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1095,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1112,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1129,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1146,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1163,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1180,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1197,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1214,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1231,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1248,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1265,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1282,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1299,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1316,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1333,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1350,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1367,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1384,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1401,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1418,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1435,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1452,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1469,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1486,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1503,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1520,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="258">
   <si>
     <t>Result</t>
   </si>
@@ -723,6 +723,93 @@
   </si>
   <si>
     <t>Thu Nov 07 16:10:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:29:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:29:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:29:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:29:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:29:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:30:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:30:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:30:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:30:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:30:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:30:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:31:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:31:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:31:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:31:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:31:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:32:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:32:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:32:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:32:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:32:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:32:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:33:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:33:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:33:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:33:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:33:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:33:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:34:05 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1148,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1165,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1182,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1199,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1216,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1233,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1250,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1267,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1284,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1301,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1318,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1335,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1352,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1369,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1386,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1403,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1420,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1437,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1454,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1471,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1488,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1505,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1522,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1539,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1556,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1573,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1590,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1607,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="288">
   <si>
     <t>Result</t>
   </si>
@@ -810,6 +810,96 @@
   </si>
   <si>
     <t>Tue Nov 12 17:34:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:36:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:36:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:36:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:36:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:36:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:36:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:37:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:37:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:37:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:37:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:37:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:37:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:38:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:38:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:38:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:38:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:38:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:39:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:39:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:39:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:39:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:39:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:39:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:40:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:40:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:40:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:40:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:40:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:40:52 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1235,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1252,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1269,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1286,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1303,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1320,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1337,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1354,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1371,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1388,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1405,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1422,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1439,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1456,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1473,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1487,10 +1577,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1504,10 +1594,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1524,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1541,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1558,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1575,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1592,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1609,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1626,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1643,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1660,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1674,10 +1764,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1694,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{076E2838-2B25-4621-A31B-80CCDA3DDD67}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648C3072-2EE1-4437-86D7-09B69E49BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="1155"/>
+    <workbookView xWindow="30600" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
   <si>
     <t>Result</t>
   </si>
@@ -101,717 +101,12 @@
     <t>Transportation Network Services</t>
   </si>
   <si>
-    <t>Unclaimed Property</t>
-  </si>
-  <si>
-    <t>IFTA Tax</t>
-  </si>
-  <si>
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Thu Mar 07 23:38:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:39:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:39:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:40:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:41:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:41:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:42:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:42:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:43:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:43:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:44:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:45:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:45:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:46:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:46:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:47:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:47:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:48:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:48:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:49:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:50:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:50:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:50:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:51:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:52:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:52:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Mar 07 23:53:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:02:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:02:27 EDT 2024</t>
-  </si>
-  <si>
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:33:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:33:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:33:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:33:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:33:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:33:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:34:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:34:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:34:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:34:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:34:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:34:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:35:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:35:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:35:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:35:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:35:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:35:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:35:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:36:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:36:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:36:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:36:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:36:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:36:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:37:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:37:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:37:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:37:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:29:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:29:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:30:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:30:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:30:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:30:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:30:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:30:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:31:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:31:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:31:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:31:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:31:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:32:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:32:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:32:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:32:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:32:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:32:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:33:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:33:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:33:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:33:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:33:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:33:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:34:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:34:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:34:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:34:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:20:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:21:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:21:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:21:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:21:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:21:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:22:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:22:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:22:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:22:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:22:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:23:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:23:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:23:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:23:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:23:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:23:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:24:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:24:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:24:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:24:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:24:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:25:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:25:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:25:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:25:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:25:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:25:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:26:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:19:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:19:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:20:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:20:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:20:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:20:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:20:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:20:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:21:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:21:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:21:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:21:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:21:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:21:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:22:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:22:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:22:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:22:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:22:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:22:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:23:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:23:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:23:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:23:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:23:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:24:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:24:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:24:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:24:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:30:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:30:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:30:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:31:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:31:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:31:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:31:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:31:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:31:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:32:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:32:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:32:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:32:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:32:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:32:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:33:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:33:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:33:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:33:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:33:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:33:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:34:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:34:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:34:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:34:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:34:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:34:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:35:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:35:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:05:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:05:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:05:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:05:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:06:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:06:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:06:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:06:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:06:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:06:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:07:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:07:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:07:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:07:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:08:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:08:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:08:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:08:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:08:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:09:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:09:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:09:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:09:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:09:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:10:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:10:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:10:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:10:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:29:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:29:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:29:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:29:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:29:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:30:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:30:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:30:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:30:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:30:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:30:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:31:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:31:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:31:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:31:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:31:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:32:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:32:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:32:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:32:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:32:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:32:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:33:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:33:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:33:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:33:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:33:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:33:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:34:05 EST 2024</t>
-  </si>
-  <si>
     <t>Tue Jan 28 21:36:09 EST 2025</t>
   </si>
   <si>
@@ -860,15 +155,6 @@
     <t>Tue Jan 28 21:38:40 EST 2025</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:38:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:39:00 EST 2025</t>
-  </si>
-  <si>
     <t>Tue Jan 28 21:39:10 EST 2025</t>
   </si>
   <si>
@@ -894,9 +180,6 @@
   </si>
   <si>
     <t>Tue Jan 28 21:40:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:40:41 EST 2025</t>
   </si>
   <si>
     <t>Tue Jan 28 21:40:52 EST 2025</t>
@@ -906,7 +189,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,19 +231,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -974,14 +256,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1014,9 +296,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1068,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1120,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1179,21 +461,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1210,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1262,28 +544,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C30"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,13 +590,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1325,13 +607,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1342,13 +624,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1359,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1376,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1393,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -1410,13 +692,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -1427,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1444,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1461,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1478,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1495,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1512,13 +794,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
@@ -1529,13 +811,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -1546,13 +828,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -1563,13 +845,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>20</v>
@@ -1577,36 +859,36 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1614,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1623,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1640,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1657,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1674,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1691,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1708,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1725,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1742,63 +1024,12 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" t="s">
-        <v>286</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648C3072-2EE1-4437-86D7-09B69E49BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F94664B4-A075-48F0-96F3-FF1C8DDB6530}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{597CD883-3A55-4BEE-94D3-336F4104083C}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="79">
   <si>
     <t>Result</t>
   </si>
@@ -183,12 +183,103 @@
   </si>
   <si>
     <t>Tue Jan 28 21:40:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Digital Advertising Gross Revenues</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:44:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:44:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:44:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:44:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:44:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:45:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:45:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:45:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:45:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:45:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:45:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:46:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:46:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:46:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:46:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:46:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:46:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:47:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:47:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:47:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:47:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:47:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:47:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:48:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:48:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:48:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:48:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 19:48:49 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,19 +322,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -260,10 +351,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -298,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -350,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -461,21 +552,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -492,7 +583,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -544,28 +635,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5982E357-C335-4E2D-AD06-E7759BEC14C0}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="49.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="40.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -607,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -624,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -641,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -658,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -675,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -692,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -709,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -726,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -743,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -760,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -777,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -794,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -811,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -828,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -845,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -862,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -879,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -896,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -913,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -930,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -947,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -964,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -981,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -998,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1015,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1027,9 +1118,43 @@
         <v>14</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="107">
   <si>
     <t>Result</t>
   </si>
@@ -273,6 +273,90 @@
   </si>
   <si>
     <t>Tue Feb 11 19:48:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 21:58:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:00:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:01:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:02:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:03:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:05:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:06:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:07:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:07:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:07:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:08:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:08:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:08:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:09:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:10:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:12:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:13:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:13:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:13:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:13:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:14:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:14:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:14:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:14:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:14:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:14:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:15:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:16:18 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -681,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -698,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -715,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -732,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -749,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -766,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -783,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -800,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -817,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -834,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -851,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -868,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -885,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -902,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -919,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -936,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -953,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -970,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -987,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1004,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1021,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1038,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1055,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1072,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1089,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1106,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1123,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1140,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/FEINmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="136">
   <si>
     <t>Result</t>
   </si>
@@ -357,6 +357,93 @@
   </si>
   <si>
     <t>Mon Feb 24 22:16:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:25:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:26:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:28:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:29:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:30:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:31:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:32:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:33:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:34:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:34:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:34:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:34:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:34:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:35:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:36:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:37:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:39:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:40:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 15:41:17 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -765,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -782,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -799,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -816,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -833,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -850,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -867,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -884,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -901,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -918,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -935,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -952,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -969,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -986,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1003,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1020,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1037,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1054,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -1071,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1088,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1105,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1122,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1139,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1156,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1173,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1190,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1204,10 +1291,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1221,10 +1308,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
